--- a/data/trans_orig/P15D$ingresado-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15D$ingresado-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0E5D3E8-1CDD-46D1-A90D-E586A40A6CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4530FB49-EC77-4A96-B265-14F4568767C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6EF31ACE-8FB3-402F-9B29-5DA9CDBC53E7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{93524336-8B5D-46F4-A8F8-DD9BAD39D5DF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="889">
-  <si>
-    <t>Población según consecuencia del último accidente en 2007</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="996">
+  <si>
+    <t>Población según el tipo de atención sanitaria recibida tras el último accidente (multirrespuesta) en 2007</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -62,7 +62,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Ingreso en hospital o clínica</t>
@@ -182,7 +182,7 @@
     <t>33,52%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>11,18%</t>
@@ -278,7 +278,7 @@
     <t>41,88%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>6,6%</t>
@@ -368,7 +368,7 @@
     <t>42,98%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>16,51%</t>
@@ -461,7 +461,7 @@
     <t>54,66%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>21,15%</t>
@@ -551,2161 +551,2482 @@
     <t>46,44%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el tipo de atención sanitaria recibida tras el último accidente (multirrespuesta) en 2012</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>62,48%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>51,28%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de atención sanitaria recibida tras el último accidente (multirrespuesta) en 2016</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
   </si>
   <si>
     <t>2,75%</t>
   </si>
   <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según consecuencia del último accidente en 2012</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>Población según consecuencia del último accidente en 2016</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>32,86%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>Población según el tipo de atención sanitaria recibida tras el último accidente (multirrespuesta) en 2023</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
   </si>
   <si>
     <t>3,43%</t>
   </si>
   <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>58,97%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>53,75%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>34,32%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>47,29%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
   </si>
   <si>
     <t>10,07%</t>
   </si>
   <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>Población según consecuencia del último accidente en 2023</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
   </si>
   <si>
     <t>10,63%</t>
   </si>
   <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
   </si>
   <si>
     <t>16,53%</t>
   </si>
   <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
     <t>11,79%</t>
   </si>
   <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
   </si>
 </sst>
 </file>
@@ -3117,8 +3438,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF261F3-08C0-4549-B8CE-807C62C16741}">
-  <dimension ref="A1:K32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F097F00D-1123-4540-AA78-6D19BEAB276F}">
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3875,31 +4196,31 @@
         <v>8</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="I24" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="J24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -3908,31 +4229,31 @@
         <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="H25" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="I25" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -3941,31 +4262,31 @@
         <v>28</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -3974,66 +4295,66 @@
         <v>38</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -4042,31 +4363,31 @@
         <v>18</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -4075,31 +4396,31 @@
         <v>28</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H30" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -4108,45 +4429,180 @@
         <v>38</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="H32" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="I32" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="J32" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="I31" s="7" t="s">
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="J31" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="G33" s="7" t="s">
         <v>238</v>
       </c>
+      <c r="H33" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>261</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -4159,8 +4615,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34DCED90-CA0D-494A-A19A-A375A56808B8}">
-  <dimension ref="A1:K32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBE34B54-FA0B-48C3-A04C-2518C95E9A37}">
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4176,7 +4632,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4247,31 +4703,31 @@
         <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -4280,31 +4736,31 @@
         <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -4313,31 +4769,31 @@
         <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -4346,31 +4802,31 @@
         <v>38</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -4381,31 +4837,31 @@
         <v>8</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -4414,31 +4870,31 @@
         <v>18</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>104</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -4447,31 +4903,31 @@
         <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -4480,31 +4936,31 @@
         <v>38</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>307</v>
+        <v>330</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -4515,31 +4971,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>309</v>
+        <v>332</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>115</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>310</v>
+        <v>333</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -4548,31 +5004,31 @@
         <v>18</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -4581,31 +5037,31 @@
         <v>28</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>329</v>
+        <v>352</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>114</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -4614,31 +5070,31 @@
         <v>38</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>335</v>
+        <v>358</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>336</v>
+        <v>359</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>337</v>
+        <v>360</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>339</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -4649,31 +5105,31 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>342</v>
+        <v>365</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>343</v>
+        <v>366</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>346</v>
+        <v>369</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>347</v>
+        <v>370</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -4682,31 +5138,31 @@
         <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>349</v>
+        <v>372</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>350</v>
+        <v>373</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>352</v>
+        <v>375</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>353</v>
+        <v>376</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>354</v>
+        <v>377</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>355</v>
+        <v>378</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>356</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -4715,31 +5171,31 @@
         <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -4748,31 +5204,31 @@
         <v>38</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -4783,13 +5239,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
@@ -4798,16 +5254,16 @@
         <v>13</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -4816,31 +5272,31 @@
         <v>18</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -4855,19 +5311,19 @@
         <v>13</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>12</v>
@@ -4882,31 +5338,31 @@
         <v>38</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -4917,31 +5373,31 @@
         <v>8</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>400</v>
+        <v>12</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>399</v>
+        <v>12</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>406</v>
+        <v>428</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -4950,31 +5406,31 @@
         <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>412</v>
+        <v>182</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -4983,31 +5439,31 @@
         <v>28</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -5016,66 +5472,66 @@
         <v>38</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>430</v>
+        <v>11</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>399</v>
+        <v>453</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>433</v>
+        <v>12</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -5084,31 +5540,31 @@
         <v>18</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>448</v>
+        <v>159</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -5117,31 +5573,31 @@
         <v>28</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>450</v>
+        <v>12</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>451</v>
+        <v>13</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>453</v>
+        <v>127</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>454</v>
+        <v>12</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>457</v>
+        <v>12</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -5150,45 +5606,180 @@
         <v>38</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>237</v>
+        <v>475</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>238</v>
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -5201,8 +5792,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF8F6E28-3974-4FB7-B35F-A1752CAA0001}">
-  <dimension ref="A1:K32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91742FF-0BDB-423D-931D-6180E6F1B59B}">
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5218,7 +5809,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>467</v>
+        <v>516</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5289,31 +5880,31 @@
         <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>468</v>
+        <v>517</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>469</v>
+        <v>518</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>471</v>
+        <v>520</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>472</v>
+        <v>521</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>473</v>
+        <v>522</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>474</v>
+        <v>523</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -5322,31 +5913,31 @@
         <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>475</v>
+        <v>524</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>476</v>
+        <v>525</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>477</v>
+        <v>526</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>478</v>
+        <v>527</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>479</v>
+        <v>528</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>480</v>
+        <v>529</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>481</v>
+        <v>530</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>482</v>
+        <v>531</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>483</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -5355,31 +5946,31 @@
         <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>484</v>
+        <v>533</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>485</v>
+        <v>534</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>486</v>
+        <v>535</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>487</v>
+        <v>536</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>488</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -5388,31 +5979,31 @@
         <v>38</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>489</v>
+        <v>538</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>490</v>
+        <v>539</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>491</v>
+        <v>540</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>492</v>
+        <v>541</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>493</v>
+        <v>542</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>494</v>
+        <v>543</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>495</v>
+        <v>544</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>496</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -5423,31 +6014,31 @@
         <v>8</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>497</v>
+        <v>546</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>498</v>
+        <v>547</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>499</v>
+        <v>548</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>500</v>
+        <v>549</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>501</v>
+        <v>550</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>502</v>
+        <v>551</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>503</v>
+        <v>552</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>504</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -5456,31 +6047,31 @@
         <v>18</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>505</v>
+        <v>554</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>506</v>
+        <v>555</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>507</v>
+        <v>556</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>508</v>
+        <v>557</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>509</v>
+        <v>558</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>510</v>
+        <v>559</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>511</v>
+        <v>560</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>512</v>
+        <v>561</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>513</v>
+        <v>562</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -5489,31 +6080,31 @@
         <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>514</v>
+        <v>563</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>515</v>
+        <v>564</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>516</v>
+        <v>565</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>517</v>
+        <v>566</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>487</v>
+        <v>536</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>518</v>
+        <v>567</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>519</v>
+        <v>568</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>520</v>
+        <v>569</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -5525,28 +6116,28 @@
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>521</v>
+        <v>570</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>522</v>
+        <v>571</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>523</v>
+        <v>572</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>524</v>
+        <v>573</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>525</v>
+        <v>574</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>526</v>
+        <v>575</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>527</v>
+        <v>576</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -5557,31 +6148,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>528</v>
+        <v>577</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>529</v>
+        <v>578</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>530</v>
+        <v>448</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>531</v>
+        <v>579</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>532</v>
+        <v>580</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>533</v>
+        <v>581</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>534</v>
+        <v>582</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>535</v>
+        <v>583</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>536</v>
+        <v>584</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -5590,31 +6181,31 @@
         <v>18</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>537</v>
+        <v>585</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>538</v>
+        <v>586</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>539</v>
+        <v>587</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>540</v>
+        <v>588</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>541</v>
+        <v>589</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>542</v>
+        <v>590</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>543</v>
+        <v>591</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>544</v>
+        <v>592</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>545</v>
+        <v>593</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -5623,31 +6214,31 @@
         <v>28</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>546</v>
+        <v>594</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>547</v>
+        <v>595</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>548</v>
+        <v>596</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>549</v>
+        <v>597</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>550</v>
+        <v>598</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>551</v>
+        <v>599</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>52</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>552</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -5656,31 +6247,31 @@
         <v>38</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>553</v>
+        <v>601</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>554</v>
+        <v>602</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>555</v>
+        <v>603</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>556</v>
+        <v>604</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>557</v>
+        <v>605</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>558</v>
+        <v>606</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>559</v>
+        <v>607</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>560</v>
+        <v>608</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -5691,31 +6282,31 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>561</v>
+        <v>609</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>562</v>
+        <v>610</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>563</v>
+        <v>611</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>564</v>
+        <v>612</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>565</v>
+        <v>613</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>566</v>
+        <v>614</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>567</v>
+        <v>615</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>568</v>
+        <v>616</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -5724,31 +6315,31 @@
         <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>569</v>
+        <v>617</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>570</v>
+        <v>618</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>571</v>
+        <v>619</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>572</v>
+        <v>620</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>573</v>
+        <v>621</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>185</v>
+        <v>622</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>574</v>
+        <v>623</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>575</v>
+        <v>624</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -5757,31 +6348,31 @@
         <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>576</v>
+        <v>625</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>577</v>
+        <v>626</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>578</v>
+        <v>627</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>579</v>
+        <v>628</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>580</v>
+        <v>629</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>581</v>
+        <v>630</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>582</v>
+        <v>631</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>583</v>
+        <v>632</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -5790,31 +6381,31 @@
         <v>38</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>584</v>
+        <v>633</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>585</v>
+        <v>634</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>586</v>
+        <v>635</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>587</v>
+        <v>636</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>588</v>
+        <v>637</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>589</v>
+        <v>638</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>590</v>
+        <v>639</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>591</v>
+        <v>640</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -5825,31 +6416,31 @@
         <v>8</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>592</v>
+        <v>641</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>593</v>
+        <v>642</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>594</v>
+        <v>643</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>595</v>
+        <v>644</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>596</v>
+        <v>645</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>597</v>
+        <v>646</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>598</v>
+        <v>647</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>599</v>
+        <v>648</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -5858,31 +6449,31 @@
         <v>18</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>600</v>
+        <v>649</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>601</v>
+        <v>650</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>602</v>
+        <v>651</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>603</v>
+        <v>652</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>604</v>
+        <v>653</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>605</v>
+        <v>654</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>606</v>
+        <v>655</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>607</v>
+        <v>656</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>608</v>
+        <v>657</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -5891,13 +6482,13 @@
         <v>28</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>609</v>
+        <v>658</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>12</v>
@@ -5906,16 +6497,16 @@
         <v>13</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>610</v>
+        <v>659</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>611</v>
+        <v>660</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>612</v>
+        <v>661</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -5924,31 +6515,31 @@
         <v>38</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>613</v>
+        <v>662</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>614</v>
+        <v>663</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>615</v>
+        <v>664</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>616</v>
+        <v>665</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>617</v>
+        <v>666</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>618</v>
+        <v>667</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>405</v>
+        <v>668</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>619</v>
+        <v>669</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -5959,31 +6550,31 @@
         <v>8</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>620</v>
+        <v>670</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>621</v>
+        <v>671</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>622</v>
+        <v>672</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>623</v>
+        <v>673</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>624</v>
+        <v>12</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>625</v>
+        <v>9</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>626</v>
+        <v>674</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>627</v>
+        <v>675</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>628</v>
+        <v>676</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -5992,31 +6583,31 @@
         <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>629</v>
+        <v>677</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>23</v>
+        <v>678</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>630</v>
+        <v>679</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>631</v>
+        <v>680</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>632</v>
+        <v>681</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>633</v>
+        <v>682</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>634</v>
+        <v>683</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>635</v>
+        <v>684</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>283</v>
+        <v>685</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -6025,31 +6616,31 @@
         <v>28</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>636</v>
+        <v>686</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>637</v>
+        <v>12</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>638</v>
+        <v>687</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>639</v>
+        <v>688</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>640</v>
+        <v>689</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>642</v>
+        <v>85</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>643</v>
+        <v>691</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>644</v>
+        <v>692</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -6058,66 +6649,66 @@
         <v>38</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>645</v>
+        <v>693</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>646</v>
+        <v>12</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>647</v>
+        <v>694</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>648</v>
+        <v>695</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>649</v>
+        <v>696</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>650</v>
+        <v>697</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>651</v>
+        <v>698</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>652</v>
+        <v>143</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>175</v>
+        <v>699</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>458</v>
+        <v>700</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>10</v>
+        <v>701</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>653</v>
+        <v>702</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>114</v>
+        <v>703</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>654</v>
+        <v>352</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>655</v>
+        <v>704</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>656</v>
+        <v>705</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>657</v>
+        <v>233</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>658</v>
+        <v>706</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -6126,31 +6717,31 @@
         <v>18</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>659</v>
+        <v>707</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>660</v>
+        <v>708</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>661</v>
+        <v>709</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>662</v>
+        <v>710</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>663</v>
+        <v>711</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>664</v>
+        <v>712</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>665</v>
+        <v>713</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>666</v>
+        <v>714</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -6159,31 +6750,31 @@
         <v>28</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>668</v>
+        <v>715</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>227</v>
+        <v>96</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>669</v>
+        <v>716</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>670</v>
+        <v>717</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>671</v>
+        <v>718</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>132</v>
+        <v>719</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>672</v>
+        <v>213</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>673</v>
+        <v>720</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>674</v>
+        <v>721</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -6192,45 +6783,180 @@
         <v>38</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>675</v>
+        <v>722</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>676</v>
+        <v>723</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>677</v>
+        <v>724</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>372</v>
+        <v>725</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>678</v>
+        <v>726</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>679</v>
+        <v>727</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>680</v>
+        <v>728</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>681</v>
+        <v>729</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>682</v>
+        <v>730</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>238</v>
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
@@ -6243,8 +6969,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80C6397A-81E3-41C0-B38B-F3C1E9970BC4}">
-  <dimension ref="A1:K32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1CFF20-4EEB-4E1F-B3DE-9475EEB6DAFE}">
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6260,7 +6986,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>683</v>
+        <v>759</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6337,25 +7063,25 @@
         <v>13</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>684</v>
+        <v>760</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>685</v>
+        <v>761</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>686</v>
+        <v>762</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>687</v>
+        <v>383</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>688</v>
+        <v>763</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -6364,31 +7090,31 @@
         <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>689</v>
+        <v>764</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>690</v>
+        <v>765</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>691</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>692</v>
+        <v>766</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>693</v>
+        <v>767</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>694</v>
+        <v>463</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>695</v>
+        <v>768</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>696</v>
+        <v>769</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>697</v>
+        <v>770</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -6397,31 +7123,31 @@
         <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>698</v>
+        <v>771</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>699</v>
+        <v>772</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>700</v>
+        <v>773</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>701</v>
+        <v>774</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>372</v>
+        <v>775</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>702</v>
+        <v>776</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>703</v>
+        <v>777</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -6436,25 +7162,25 @@
         <v>13</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>684</v>
+        <v>760</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>704</v>
+        <v>778</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>705</v>
+        <v>779</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>561</v>
+        <v>780</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>706</v>
+        <v>781</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -6465,13 +7191,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>485</v>
+        <v>782</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>707</v>
+        <v>783</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
@@ -6480,16 +7206,16 @@
         <v>13</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>325</v>
+        <v>348</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>709</v>
+        <v>784</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -6498,31 +7224,31 @@
         <v>18</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>710</v>
+        <v>785</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>161</v>
+        <v>786</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>711</v>
+        <v>787</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>712</v>
+        <v>788</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>401</v>
+        <v>258</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>713</v>
+        <v>789</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>714</v>
+        <v>656</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>715</v>
+        <v>790</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>716</v>
+        <v>791</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -6531,31 +7257,31 @@
         <v>28</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>718</v>
+        <v>792</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>719</v>
+        <v>793</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>720</v>
+        <v>253</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>721</v>
+        <v>794</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>54</v>
+        <v>795</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>722</v>
+        <v>165</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>723</v>
+        <v>796</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -6564,31 +7290,31 @@
         <v>38</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>724</v>
+        <v>797</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>725</v>
+        <v>798</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>726</v>
+        <v>799</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>727</v>
+        <v>800</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>728</v>
+        <v>801</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>729</v>
+        <v>802</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>730</v>
+        <v>803</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>731</v>
+        <v>804</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -6599,31 +7325,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>732</v>
+        <v>805</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>733</v>
+        <v>806</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>734</v>
+        <v>807</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>735</v>
+        <v>808</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>736</v>
+        <v>809</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>737</v>
+        <v>810</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>738</v>
+        <v>811</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>646</v>
+        <v>812</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>739</v>
+        <v>813</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -6632,31 +7358,31 @@
         <v>18</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>740</v>
+        <v>814</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>741</v>
+        <v>815</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>742</v>
+        <v>816</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>743</v>
+        <v>817</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>22</v>
+        <v>818</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>744</v>
+        <v>819</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>745</v>
+        <v>820</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>746</v>
+        <v>821</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>747</v>
+        <v>822</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -6671,25 +7397,25 @@
         <v>13</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>748</v>
+        <v>823</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>749</v>
+        <v>824</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>750</v>
+        <v>168</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>751</v>
+        <v>825</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>752</v>
+        <v>826</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>753</v>
+        <v>827</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>236</v>
+        <v>828</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -6698,31 +7424,31 @@
         <v>38</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>257</v>
+        <v>829</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>754</v>
+        <v>569</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>755</v>
+        <v>830</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>390</v>
+        <v>831</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>756</v>
+        <v>832</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>757</v>
+        <v>833</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>758</v>
+        <v>776</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>759</v>
+        <v>834</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -6733,31 +7459,31 @@
         <v>8</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>760</v>
+        <v>835</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>761</v>
+        <v>836</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>762</v>
+        <v>837</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>763</v>
+        <v>838</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>764</v>
+        <v>839</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>765</v>
+        <v>840</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>766</v>
+        <v>841</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>767</v>
+        <v>842</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>768</v>
+        <v>843</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -6766,31 +7492,31 @@
         <v>18</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>769</v>
+        <v>844</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>770</v>
+        <v>845</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>771</v>
+        <v>846</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>772</v>
+        <v>847</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>773</v>
+        <v>848</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>774</v>
+        <v>849</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>775</v>
+        <v>850</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>524</v>
+        <v>851</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>776</v>
+        <v>852</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -6799,31 +7525,31 @@
         <v>28</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>777</v>
+        <v>853</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>778</v>
+        <v>854</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>779</v>
+        <v>54</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>780</v>
+        <v>246</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>781</v>
+        <v>855</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>459</v>
+        <v>856</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>160</v>
+        <v>857</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>275</v>
+        <v>858</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>782</v>
+        <v>859</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -6832,31 +7558,31 @@
         <v>38</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>783</v>
+        <v>860</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>784</v>
+        <v>320</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>762</v>
+        <v>861</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>785</v>
+        <v>862</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>786</v>
+        <v>863</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>787</v>
+        <v>864</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>788</v>
+        <v>865</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>789</v>
+        <v>866</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>790</v>
+        <v>867</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -6867,31 +7593,31 @@
         <v>8</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>791</v>
+        <v>868</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>792</v>
+        <v>317</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>793</v>
+        <v>869</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>794</v>
+        <v>870</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>795</v>
+        <v>871</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>796</v>
+        <v>872</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>797</v>
+        <v>873</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>798</v>
+        <v>874</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>799</v>
+        <v>875</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -6900,31 +7626,31 @@
         <v>18</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>800</v>
+        <v>876</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>801</v>
+        <v>877</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>802</v>
+        <v>878</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>803</v>
+        <v>879</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>804</v>
+        <v>716</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>805</v>
+        <v>880</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>806</v>
+        <v>881</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>807</v>
+        <v>882</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>378</v>
+        <v>883</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -6933,31 +7659,31 @@
         <v>28</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>808</v>
+        <v>884</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>809</v>
+        <v>885</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>810</v>
+        <v>886</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>811</v>
+        <v>887</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>812</v>
+        <v>354</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>813</v>
+        <v>888</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>814</v>
+        <v>889</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>815</v>
+        <v>890</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>816</v>
+        <v>891</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -6966,31 +7692,31 @@
         <v>38</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>817</v>
+        <v>892</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>818</v>
+        <v>485</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>819</v>
+        <v>893</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>820</v>
+        <v>894</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>821</v>
+        <v>895</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>822</v>
+        <v>896</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>485</v>
+        <v>392</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>823</v>
+        <v>897</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>824</v>
+        <v>898</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -7001,31 +7727,31 @@
         <v>8</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>825</v>
+        <v>899</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>826</v>
+        <v>900</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>827</v>
+        <v>901</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>612</v>
+        <v>902</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>828</v>
+        <v>903</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>829</v>
+        <v>904</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>830</v>
+        <v>327</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>831</v>
+        <v>163</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>832</v>
+        <v>676</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -7034,31 +7760,31 @@
         <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>833</v>
+        <v>905</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>650</v>
+        <v>906</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>834</v>
+        <v>907</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>835</v>
+        <v>908</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>836</v>
+        <v>909</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>837</v>
+        <v>910</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>838</v>
+        <v>911</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>839</v>
+        <v>912</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>840</v>
+        <v>913</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -7067,31 +7793,31 @@
         <v>28</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>841</v>
+        <v>914</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>842</v>
+        <v>12</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>843</v>
+        <v>915</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>844</v>
+        <v>916</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>845</v>
+        <v>917</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>846</v>
+        <v>918</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>847</v>
+        <v>919</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>848</v>
+        <v>920</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>849</v>
+        <v>921</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -7100,66 +7826,66 @@
         <v>38</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>850</v>
+        <v>922</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>851</v>
+        <v>923</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>852</v>
+        <v>924</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>853</v>
+        <v>925</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>854</v>
+        <v>926</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>855</v>
+        <v>927</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>487</v>
+        <v>721</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>856</v>
+        <v>928</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>857</v>
+        <v>929</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>858</v>
+        <v>930</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>859</v>
+        <v>916</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>860</v>
+        <v>931</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>861</v>
+        <v>932</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>438</v>
+        <v>933</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>862</v>
+        <v>934</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>863</v>
+        <v>935</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>864</v>
+        <v>936</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>865</v>
+        <v>937</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
@@ -7168,31 +7894,31 @@
         <v>18</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>866</v>
+        <v>938</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>867</v>
+        <v>939</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>868</v>
+        <v>940</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>869</v>
+        <v>941</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>870</v>
+        <v>942</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>392</v>
+        <v>943</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>871</v>
+        <v>944</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>872</v>
+        <v>945</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>873</v>
+        <v>946</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
@@ -7201,31 +7927,31 @@
         <v>28</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>874</v>
+        <v>947</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>519</v>
+        <v>948</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>875</v>
+        <v>949</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>876</v>
+        <v>950</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>877</v>
+        <v>951</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>878</v>
+        <v>952</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>845</v>
+        <v>953</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>879</v>
+        <v>954</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>880</v>
+        <v>598</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -7234,45 +7960,180 @@
         <v>38</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>69</v>
+        <v>727</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>881</v>
+        <v>955</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>882</v>
+        <v>956</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>883</v>
+        <v>957</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>884</v>
+        <v>23</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>885</v>
+        <v>958</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>886</v>
+        <v>959</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>887</v>
+        <v>928</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>888</v>
+        <v>960</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>238</v>
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>962</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>965</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>966</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>970</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>971</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>973</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>976</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>978</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>980</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>994</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:H1"/>
